--- a/documents/2_docs/indiv_model_results_for_plotting.xlsx
+++ b/documents/2_docs/indiv_model_results_for_plotting.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/04_git/Praxis/documents/2_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/04_git/code-generation/documents/2_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2D58F-2D8B-3743-A76B-C0EA2FE892A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEF2140-04C8-654D-9B20-3752002D74E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="680" windowWidth="20940" windowHeight="17220" xr2:uid="{7466613B-321F-B84F-BCA9-E0393D005182}"/>
+    <workbookView xWindow="5100" yWindow="680" windowWidth="23880" windowHeight="17220" activeTab="1" xr2:uid="{7466613B-321F-B84F-BCA9-E0393D005182}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="One_Model_Runs" sheetId="1" r:id="rId1"/>
+    <sheet name="Plain_Reflection_Temp_0" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -96,6 +97,27 @@
   </si>
   <si>
     <t>Phixtral</t>
+  </si>
+  <si>
+    <t>HumanEval_Complete_Plain_reflection</t>
+  </si>
+  <si>
+    <t>MBPP_Plain_reflection</t>
+  </si>
+  <si>
+    <t>LBPP_Plain_reflection</t>
+  </si>
+  <si>
+    <t>Big_Code_Bench_Plain_reflection</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Average__Plain_reflection</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -103,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,13 +155,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -169,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,10 +213,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD9AA9B-6490-C642-BB5E-BD412C61430D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -535,7 +582,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -575,7 +622,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -595,7 +642,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -615,7 +662,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -635,7 +682,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -655,7 +702,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -675,7 +722,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -695,7 +742,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -715,7 +762,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -735,7 +782,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -755,7 +802,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -775,7 +822,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -795,8 +842,8 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4">
@@ -815,8 +862,8 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4">
@@ -833,6 +880,289 @@
       </c>
       <c r="F15" s="4">
         <v>0.20599999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224F5B43-3E08-4548-A5A9-2515066863DB}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>22.22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.252</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.67679999999999996</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.128</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.55469999999999997</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="G4" s="4">
+        <v>19.14</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.496</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.17901</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.186</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13.41</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.2345679E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35.97</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/documents/2_docs/indiv_model_results_for_plotting.xlsx
+++ b/documents/2_docs/indiv_model_results_for_plotting.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/04_git/code-generation/documents/2_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEF2140-04C8-654D-9B20-3752002D74E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4401C5F-E3D9-7E4B-94E9-A7C0E9D1F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="680" windowWidth="23880" windowHeight="17220" activeTab="1" xr2:uid="{7466613B-321F-B84F-BCA9-E0393D005182}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28980" windowHeight="17220" xr2:uid="{7466613B-321F-B84F-BCA9-E0393D005182}"/>
   </bookViews>
   <sheets>
-    <sheet name="One_Model_Runs" sheetId="1" r:id="rId1"/>
-    <sheet name="Plain_Reflection_Temp_0" sheetId="2" r:id="rId2"/>
+    <sheet name="Original_One_Model_Runs_Jan2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Original_Plain_Reflect_Feb2025" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -93,12 +93,6 @@
     <t>OpenCodeInterpreter</t>
   </si>
   <si>
-    <t>Solar-10.7B</t>
-  </si>
-  <si>
-    <t>Phixtral</t>
-  </si>
-  <si>
     <t>HumanEval_Complete_Plain_reflection</t>
   </si>
   <si>
@@ -118,6 +112,48 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>Model_Size</t>
+  </si>
+  <si>
+    <t>Phixtral-2x2_8</t>
+  </si>
+  <si>
+    <t>Phixtral-4x2_8</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>Apache2</t>
+  </si>
+  <si>
+    <t>Mistral_Commercial</t>
+  </si>
+  <si>
+    <t>free_use</t>
+  </si>
+  <si>
+    <t>free_100M_users</t>
+  </si>
+  <si>
+    <t>free_700M_users</t>
+  </si>
+  <si>
+    <t>Nous-Hermes-2-SOLAR-10.7B</t>
+  </si>
+  <si>
+    <t>Apache 2</t>
+  </si>
+  <si>
+    <t>free_responsible_use</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -163,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +209,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -228,8 +276,26 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,321 +631,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD9AA9B-6490-C642-BB5E-BD412C61430D}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="5.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4">
         <v>0.82930000000000004</v>
       </c>
-      <c r="C2" s="4">
+      <c r="F2" s="4">
         <v>0.75609999999999999</v>
       </c>
-      <c r="D2" s="4">
+      <c r="G2" s="4">
         <v>0.73</v>
       </c>
-      <c r="E2" s="4">
+      <c r="H2" s="4">
         <v>0.22839999999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="I2" s="4">
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.55469999999999997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.1464</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.34755999999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>7.3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13">
         <v>0.75609999999999999</v>
       </c>
-      <c r="C3" s="4">
+      <c r="F12" s="13">
         <v>0.60370000000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="G12" s="13">
         <v>0.39400000000000002</v>
       </c>
-      <c r="E3" s="4">
+      <c r="H12" s="13">
         <v>0.26540000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="I12" s="13">
         <v>0.23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C13" s="12">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="13">
         <v>0.72560000000000002</v>
       </c>
-      <c r="C4" s="4">
+      <c r="F13" s="13">
         <v>0.71340000000000003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="G13" s="13">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E4" s="4">
+      <c r="H13" s="13">
         <v>0.22220000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="I13" s="13">
         <v>0.246</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.70730000000000004</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13">
         <v>0.64629999999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="F14" s="13">
         <v>0.6159</v>
       </c>
-      <c r="D6" s="4">
+      <c r="G14" s="13">
         <v>0.51800000000000002</v>
       </c>
-      <c r="E6" s="4">
+      <c r="H14" s="13">
         <v>0.2099</v>
       </c>
-      <c r="F6" s="4">
+      <c r="I14" s="13">
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="13">
         <v>0.58540000000000003</v>
       </c>
-      <c r="C7" s="4">
+      <c r="F15" s="13">
         <v>0.53049999999999997</v>
       </c>
-      <c r="D7" s="4">
+      <c r="G15" s="13">
         <v>0.47399999999999998</v>
       </c>
-      <c r="E7" s="4">
+      <c r="H15" s="13">
         <v>0.216</v>
       </c>
-      <c r="F7" s="4">
+      <c r="I15" s="13">
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.55469999999999997</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.216</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.29799999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.54879999999999995</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.19750000000000001</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.71950000000000003</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C16" s="12">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="13">
         <v>0.311</v>
       </c>
-      <c r="C11" s="4">
+      <c r="F16" s="13">
         <v>0.35980000000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="G16" s="13">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E11" s="4">
+      <c r="H16" s="13">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="I16" s="13">
         <v>0.156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.73170000000000002</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.27439999999999998</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.19139999999999999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.25609999999999999</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.28649999999999998</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.1464</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.34755999999999998</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.20599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -891,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224F5B43-3E08-4548-A5A9-2515066863DB}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -916,31 +1149,31 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1086,7 +1319,7 @@
       <c r="F6" s="4">
         <v>0.08</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4">
@@ -1162,7 +1395,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
